--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H2">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I2">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J2">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>72.12659333830996</v>
+        <v>78.39245049070601</v>
       </c>
       <c r="R2">
-        <v>72.12659333830996</v>
+        <v>313.569801962824</v>
       </c>
       <c r="S2">
-        <v>0.01157787736923812</v>
+        <v>0.01040863639262002</v>
       </c>
       <c r="T2">
-        <v>0.01157787736923812</v>
+        <v>0.005926113635340663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H3">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I3">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J3">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>202.5504996677924</v>
+        <v>217.472129799914</v>
       </c>
       <c r="R3">
-        <v>202.5504996677924</v>
+        <v>1304.832778799484</v>
       </c>
       <c r="S3">
-        <v>0.03251373366868843</v>
+        <v>0.02887508057787191</v>
       </c>
       <c r="T3">
-        <v>0.03251373366868843</v>
+        <v>0.02465985969911676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H4">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I4">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J4">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>16.98135478235877</v>
+        <v>29.555304548473</v>
       </c>
       <c r="R4">
-        <v>16.98135478235877</v>
+        <v>177.331827290838</v>
       </c>
       <c r="S4">
-        <v>0.002725874523304944</v>
+        <v>0.003924235262357004</v>
       </c>
       <c r="T4">
-        <v>0.002725874523304944</v>
+        <v>0.003351370422502295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H5">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I5">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J5">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>17.44118724130291</v>
+        <v>17.425163567372</v>
       </c>
       <c r="R5">
-        <v>17.44118724130291</v>
+        <v>104.550981404232</v>
       </c>
       <c r="S5">
-        <v>0.002799687573022664</v>
+        <v>0.002313643603681042</v>
       </c>
       <c r="T5">
-        <v>0.002799687573022664</v>
+        <v>0.001975894976523674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H6">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I6">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J6">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>265.3102112716297</v>
+        <v>18.71850126711033</v>
       </c>
       <c r="R6">
-        <v>265.3102112716297</v>
+        <v>112.311007602662</v>
       </c>
       <c r="S6">
-        <v>0.04258802403853504</v>
+        <v>0.00248536781647421</v>
       </c>
       <c r="T6">
-        <v>0.04258802403853504</v>
+        <v>0.002122550670972749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8320663585872</v>
+        <v>24.863113</v>
       </c>
       <c r="H7">
-        <v>29.8320663585872</v>
+        <v>49.726226</v>
       </c>
       <c r="I7">
-        <v>0.1130580973126235</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J7">
-        <v>0.1130580973126235</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>88.43856592150048</v>
+        <v>271.284334927221</v>
       </c>
       <c r="R7">
-        <v>88.43856592150048</v>
+        <v>1085.137339708884</v>
       </c>
       <c r="S7">
-        <v>0.01419630157974693</v>
+        <v>0.03602005019100611</v>
       </c>
       <c r="T7">
-        <v>0.01419630157974693</v>
+        <v>0.02050786505847432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H8">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I8">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J8">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>248.3588214582748</v>
+        <v>100.7236717012727</v>
       </c>
       <c r="R8">
-        <v>248.3588214582748</v>
+        <v>604.3420302076361</v>
       </c>
       <c r="S8">
-        <v>0.03986695954049876</v>
+        <v>0.01337368673010768</v>
       </c>
       <c r="T8">
-        <v>0.03986695954049876</v>
+        <v>0.01142137898230242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H9">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I9">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J9">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>20.82181612698379</v>
+        <v>279.4222054423473</v>
       </c>
       <c r="R9">
-        <v>20.82181612698379</v>
+        <v>2514.799848981126</v>
       </c>
       <c r="S9">
-        <v>0.003342351587191872</v>
+        <v>0.03710056412662056</v>
       </c>
       <c r="T9">
-        <v>0.003342351587191872</v>
+        <v>0.04752686509323543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H10">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I10">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J10">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>21.38564316152053</v>
+        <v>37.97455971508966</v>
       </c>
       <c r="R10">
-        <v>21.38564316152053</v>
+        <v>341.771037435807</v>
       </c>
       <c r="S10">
-        <v>0.003432858014311039</v>
+        <v>0.005042110327844208</v>
       </c>
       <c r="T10">
-        <v>0.003432858014311039</v>
+        <v>0.006459085002557046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H11">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I11">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J11">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>325.3121147582406</v>
+        <v>22.38897296250533</v>
       </c>
       <c r="R11">
-        <v>325.3121147582406</v>
+        <v>201.500756662548</v>
       </c>
       <c r="S11">
-        <v>0.05221962659087485</v>
+        <v>0.002972718384387629</v>
       </c>
       <c r="T11">
-        <v>0.05221962659087485</v>
+        <v>0.003808135777471829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H12">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I12">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J12">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>226.5147063973648</v>
+        <v>24.05073657688256</v>
       </c>
       <c r="R12">
-        <v>226.5147063973648</v>
+        <v>216.456629191943</v>
       </c>
       <c r="S12">
-        <v>0.03636050687568933</v>
+        <v>0.003193360718238249</v>
       </c>
       <c r="T12">
-        <v>0.03636050687568933</v>
+        <v>0.004090784806715316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H13">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I13">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J13">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>636.1130456790902</v>
+        <v>348.563594043371</v>
       </c>
       <c r="R13">
-        <v>636.1130456790902</v>
+        <v>2091.381564260226</v>
       </c>
       <c r="S13">
-        <v>0.1021098944920396</v>
+        <v>0.04628088148019302</v>
       </c>
       <c r="T13">
-        <v>0.1021098944920396</v>
+        <v>0.03952473971371765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H14">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I14">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J14">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>53.33021309787006</v>
+        <v>302.091885216504</v>
       </c>
       <c r="R14">
-        <v>53.33021309787006</v>
+        <v>1812.551311299024</v>
       </c>
       <c r="S14">
-        <v>0.00856065202506269</v>
+        <v>0.04011055364001514</v>
       </c>
       <c r="T14">
-        <v>0.00856065202506269</v>
+        <v>0.03425516415613648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H15">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I15">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J15">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>54.77432420320332</v>
+        <v>838.047098439576</v>
       </c>
       <c r="R15">
-        <v>54.77432420320332</v>
+        <v>7542.423885956183</v>
       </c>
       <c r="S15">
-        <v>0.008792463074375381</v>
+        <v>0.1112725456717538</v>
       </c>
       <c r="T15">
-        <v>0.008792463074375381</v>
+        <v>0.1425432575276596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H16">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I16">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J16">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>833.2109119382981</v>
+        <v>113.893845814332</v>
       </c>
       <c r="R16">
-        <v>833.2109119382981</v>
+        <v>1025.044612328988</v>
       </c>
       <c r="S16">
-        <v>0.1337483626307467</v>
+        <v>0.01512236983303713</v>
       </c>
       <c r="T16">
-        <v>0.1337483626307467</v>
+        <v>0.0193721806625865</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H17">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I17">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J17">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>235.1911659213369</v>
+        <v>67.14932980564799</v>
       </c>
       <c r="R17">
-        <v>235.1911659213369</v>
+        <v>604.3439682508319</v>
       </c>
       <c r="S17">
-        <v>0.03775326618565039</v>
+        <v>0.008915819745142113</v>
       </c>
       <c r="T17">
-        <v>0.03775326618565039</v>
+        <v>0.01142141560912087</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H18">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I18">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J18">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>660.4788327014264</v>
+        <v>72.133315144668</v>
       </c>
       <c r="R18">
-        <v>660.4788327014264</v>
+        <v>649.199836302012</v>
       </c>
       <c r="S18">
-        <v>0.1060211300168671</v>
+        <v>0.00957757340707361</v>
       </c>
       <c r="T18">
-        <v>0.1060211300168671</v>
+        <v>0.01226914064392717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H19">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I19">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J19">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>55.3729830473706</v>
+        <v>1045.416945826764</v>
       </c>
       <c r="R19">
-        <v>55.3729830473706</v>
+        <v>6272.501674960584</v>
       </c>
       <c r="S19">
-        <v>0.008888560759888791</v>
+        <v>0.1388062855502163</v>
       </c>
       <c r="T19">
-        <v>0.008888560759888791</v>
+        <v>0.1185431679677114</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H20">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I20">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J20">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>56.87240964083628</v>
+        <v>279.6462304031094</v>
       </c>
       <c r="R20">
-        <v>56.87240964083628</v>
+        <v>1677.877382418656</v>
       </c>
       <c r="S20">
-        <v>0.009129251140784672</v>
+        <v>0.03713030926591455</v>
       </c>
       <c r="T20">
-        <v>0.009129251140784672</v>
+        <v>0.03170997963496417</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H21">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I21">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J21">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9047798046547</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N21">
-        <v>10.9047798046547</v>
+        <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.4618831187869663</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P21">
-        <v>0.4618831187869663</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q21">
-        <v>865.1263706179761</v>
+        <v>775.7795672364107</v>
       </c>
       <c r="R21">
-        <v>865.1263706179761</v>
+        <v>6982.016105127696</v>
       </c>
       <c r="S21">
-        <v>0.1388714836555135</v>
+        <v>0.1030049116419093</v>
       </c>
       <c r="T21">
-        <v>0.1388714836555135</v>
+        <v>0.1319521860324764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H22">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I22">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J22">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.96454710372563</v>
+        <v>1.188721</v>
       </c>
       <c r="N22">
-        <v>2.96454710372563</v>
+        <v>3.566163</v>
       </c>
       <c r="O22">
-        <v>0.1255664292712438</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P22">
-        <v>0.1255664292712438</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q22">
-        <v>120.2051982568542</v>
+        <v>105.4314472077413</v>
       </c>
       <c r="R22">
-        <v>120.2051982568542</v>
+        <v>948.883024869672</v>
       </c>
       <c r="S22">
-        <v>0.01929553275911622</v>
+        <v>0.01399876635395136</v>
       </c>
       <c r="T22">
-        <v>0.01929553275911622</v>
+        <v>0.01793281303500688</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H23">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I23">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J23">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.32523025636085</v>
+        <v>0.700844</v>
       </c>
       <c r="N23">
-        <v>8.32523025636085</v>
+        <v>2.102532</v>
       </c>
       <c r="O23">
-        <v>0.3526236553429724</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P23">
-        <v>0.3526236553429724</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q23">
-        <v>337.5679044674865</v>
+        <v>62.16008397837867</v>
       </c>
       <c r="R23">
-        <v>337.5679044674865</v>
+        <v>559.440755805408</v>
       </c>
       <c r="S23">
-        <v>0.05418694576885483</v>
+        <v>0.008253367616596905</v>
       </c>
       <c r="T23">
-        <v>0.05418694576885483</v>
+        <v>0.01057279581895698</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H24">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I24">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J24">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.69796761232365</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N24">
-        <v>0.69796761232365</v>
+        <v>2.258587</v>
       </c>
       <c r="O24">
-        <v>0.02956313317346694</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P24">
-        <v>0.02956313317346694</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q24">
-        <v>28.30089463270421</v>
+        <v>66.77375544936979</v>
       </c>
       <c r="R24">
-        <v>28.30089463270421</v>
+        <v>600.9637990443281</v>
       </c>
       <c r="S24">
-        <v>0.004542905360305437</v>
+        <v>0.008865952482562335</v>
       </c>
       <c r="T24">
-        <v>0.004542905360305437</v>
+        <v>0.01135753424459204</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H25">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I25">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J25">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.716867645186256</v>
+        <v>10.911117</v>
       </c>
       <c r="N25">
-        <v>0.716867645186256</v>
+        <v>21.822234</v>
       </c>
       <c r="O25">
-        <v>0.03036366342535065</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P25">
-        <v>0.03036366342535065</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q25">
-        <v>29.06724514690433</v>
+        <v>967.741678630216</v>
       </c>
       <c r="R25">
-        <v>29.06724514690433</v>
+        <v>5806.450071781296</v>
       </c>
       <c r="S25">
-        <v>0.004665921183798502</v>
+        <v>0.1284928738901952</v>
       </c>
       <c r="T25">
-        <v>0.004665921183798502</v>
+        <v>0.1097353212200817</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H26">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I26">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J26">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.9047798046547</v>
+        <v>3.152962</v>
       </c>
       <c r="N26">
-        <v>10.9047798046547</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O26">
-        <v>0.4618831187869663</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P26">
-        <v>0.4618831187869663</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q26">
-        <v>442.1623851813738</v>
+        <v>129.7366625940874</v>
       </c>
       <c r="R26">
-        <v>442.1623851813738</v>
+        <v>778.4199755645242</v>
       </c>
       <c r="S26">
-        <v>0.07097662091023318</v>
+        <v>0.01722591575184884</v>
       </c>
       <c r="T26">
-        <v>0.07097662091023318</v>
+        <v>0.01471125472650385</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.4131007904634</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H27">
-        <v>13.4131007904634</v>
+        <v>123.442651</v>
       </c>
       <c r="I27">
-        <v>0.05083320867566127</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J27">
-        <v>0.05083320867566127</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.96454710372563</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N27">
-        <v>2.96454710372563</v>
+        <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.1255664292712438</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P27">
-        <v>0.1255664292712438</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q27">
-        <v>39.76376910034823</v>
+        <v>359.9084880094927</v>
       </c>
       <c r="R27">
-        <v>39.76376910034823</v>
+        <v>3239.176392085435</v>
       </c>
       <c r="S27">
-        <v>0.006382944501802797</v>
+        <v>0.04778721117733891</v>
       </c>
       <c r="T27">
-        <v>0.006382944501802797</v>
+        <v>0.06121676023728476</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.4131007904634</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H28">
-        <v>13.4131007904634</v>
+        <v>123.442651</v>
       </c>
       <c r="I28">
-        <v>0.05083320867566127</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J28">
-        <v>0.05083320867566127</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>8.32523025636085</v>
+        <v>1.188721</v>
       </c>
       <c r="N28">
-        <v>8.32523025636085</v>
+        <v>3.566163</v>
       </c>
       <c r="O28">
-        <v>0.3526236553429724</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P28">
-        <v>0.3526236553429724</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q28">
-        <v>111.6671525323835</v>
+        <v>48.91295717979033</v>
       </c>
       <c r="R28">
-        <v>111.6671525323835</v>
+        <v>440.2166146181131</v>
       </c>
       <c r="S28">
-        <v>0.01792499185602378</v>
+        <v>0.006494467043514478</v>
       </c>
       <c r="T28">
-        <v>0.01792499185602378</v>
+        <v>0.008319594763468946</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.4131007904634</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H29">
-        <v>13.4131007904634</v>
+        <v>123.442651</v>
       </c>
       <c r="I29">
-        <v>0.05083320867566127</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J29">
-        <v>0.05083320867566127</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.69796761232365</v>
+        <v>0.700844</v>
       </c>
       <c r="N29">
-        <v>0.69796761232365</v>
+        <v>2.102532</v>
       </c>
       <c r="O29">
-        <v>0.02956313317346694</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P29">
-        <v>0.02956313317346694</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q29">
-        <v>9.361909932576202</v>
+        <v>28.83801376581467</v>
       </c>
       <c r="R29">
-        <v>9.361909932576202</v>
+        <v>259.542123892332</v>
       </c>
       <c r="S29">
-        <v>0.001502788917713209</v>
+        <v>0.003828996257864428</v>
       </c>
       <c r="T29">
-        <v>0.001502788917713209</v>
+        <v>0.004905051792984754</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.4131007904634</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H30">
-        <v>13.4131007904634</v>
+        <v>123.442651</v>
       </c>
       <c r="I30">
-        <v>0.05083320867566127</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J30">
-        <v>0.05083320867566127</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.716867645186256</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N30">
-        <v>0.716867645186256</v>
+        <v>2.258587</v>
       </c>
       <c r="O30">
-        <v>0.03036366342535065</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P30">
-        <v>0.03036366342535065</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q30">
-        <v>9.615417978305407</v>
+        <v>30.97844075490412</v>
       </c>
       <c r="R30">
-        <v>9.615417978305407</v>
+        <v>278.8059667941371</v>
       </c>
       <c r="S30">
-        <v>0.001543482439058393</v>
+        <v>0.004113193602314375</v>
       </c>
       <c r="T30">
-        <v>0.001543482439058393</v>
+        <v>0.005269116576566758</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.4131007904634</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H31">
-        <v>13.4131007904634</v>
+        <v>123.442651</v>
       </c>
       <c r="I31">
-        <v>0.05083320867566127</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J31">
-        <v>0.05083320867566127</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.9047798046547</v>
+        <v>10.911117</v>
       </c>
       <c r="N31">
-        <v>10.9047798046547</v>
+        <v>21.822234</v>
       </c>
       <c r="O31">
-        <v>0.4618831187869663</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P31">
-        <v>0.4618831187869663</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q31">
-        <v>146.2669106176433</v>
+        <v>448.965735950389</v>
       </c>
       <c r="R31">
-        <v>146.2669106176433</v>
+        <v>2693.794415702334</v>
       </c>
       <c r="S31">
-        <v>0.0234790009610631</v>
+        <v>0.05961187676875446</v>
       </c>
       <c r="T31">
-        <v>0.0234790009610631</v>
+        <v>0.05090965940524704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.4326165</v>
+      </c>
+      <c r="H32">
+        <v>26.865233</v>
+      </c>
+      <c r="I32">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J32">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.152962</v>
+      </c>
+      <c r="N32">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P32">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q32">
+        <v>42.35252938507301</v>
+      </c>
+      <c r="R32">
+        <v>169.410117540292</v>
+      </c>
+      <c r="S32">
+        <v>0.005623399650317651</v>
+      </c>
+      <c r="T32">
+        <v>0.003201659092284702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.4326165</v>
+      </c>
+      <c r="H33">
+        <v>26.865233</v>
+      </c>
+      <c r="I33">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J33">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P33">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q33">
+        <v>117.492114484637</v>
+      </c>
+      <c r="R33">
+        <v>704.952686907822</v>
+      </c>
+      <c r="S33">
+        <v>0.01560013357173544</v>
+      </c>
+      <c r="T33">
+        <v>0.01332280629067007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.4326165</v>
+      </c>
+      <c r="H34">
+        <v>26.865233</v>
+      </c>
+      <c r="I34">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J34">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.188721</v>
+      </c>
+      <c r="N34">
+        <v>3.566163</v>
+      </c>
+      <c r="O34">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P34">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q34">
+        <v>15.9676333184965</v>
+      </c>
+      <c r="R34">
+        <v>95.805799910979</v>
+      </c>
+      <c r="S34">
+        <v>0.002120118560174606</v>
+      </c>
+      <c r="T34">
+        <v>0.001810620964274115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.4326165</v>
+      </c>
+      <c r="H35">
+        <v>26.865233</v>
+      </c>
+      <c r="I35">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J35">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.700844</v>
+      </c>
+      <c r="N35">
+        <v>2.102532</v>
+      </c>
+      <c r="O35">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P35">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q35">
+        <v>9.414168678326</v>
+      </c>
+      <c r="R35">
+        <v>56.485012069956</v>
+      </c>
+      <c r="S35">
+        <v>0.001249975706820197</v>
+      </c>
+      <c r="T35">
+        <v>0.001067502668065701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.4326165</v>
+      </c>
+      <c r="H36">
+        <v>26.865233</v>
+      </c>
+      <c r="I36">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J36">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.258587</v>
+      </c>
+      <c r="O36">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P36">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q36">
+        <v>10.11291100096183</v>
+      </c>
+      <c r="R36">
+        <v>60.67746600577101</v>
+      </c>
+      <c r="S36">
+        <v>0.001342751920893432</v>
+      </c>
+      <c r="T36">
+        <v>0.001146735292760589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.4326165</v>
+      </c>
+      <c r="H37">
+        <v>26.865233</v>
+      </c>
+      <c r="I37">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J37">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.911117</v>
+      </c>
+      <c r="N37">
+        <v>21.822234</v>
+      </c>
+      <c r="O37">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P37">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q37">
+        <v>146.5648502476305</v>
+      </c>
+      <c r="R37">
+        <v>586.2594009905221</v>
+      </c>
+      <c r="S37">
+        <v>0.01946029527865384</v>
+      </c>
+      <c r="T37">
+        <v>0.01107963779773818</v>
       </c>
     </row>
   </sheetData>
